--- a/win81 special path dump comparison.xlsx
+++ b/win81 special path dump comparison.xlsx
@@ -9,14 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9405" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9405" windowHeight="6495" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="win81" sheetId="4" r:id="rId4"/>
+    <sheet name="osx10.10.1 reg" sheetId="5" r:id="rId5"/>
+    <sheet name="osx10.10.1 alias" sheetId="6" r:id="rId6"/>
+    <sheet name="osx10.10.1 alias vs reg" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'osx10.10.1 alias'!$A$1:$C$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'osx10.10.1 reg'!$A$1:$C$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'win81'!$A$1:$C$127</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="267">
   <si>
     <t>var specialPathKeys = [</t>
   </si>
@@ -633,6 +641,201 @@
   </si>
   <si>
     <t>unequal</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/MacOS/firefox</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Caches/Firefox/Profiles/jv5ijq47.Unnamed Profile 1</t>
+  </si>
+  <si>
+    <t>/Library/Application Support/Mozilla/Extensions</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Mozilla/Extensions</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/distribution</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Caches/Mozilla/updates/Applications/Firefox</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Application Registry</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/browser/defaults</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/defaults/pref</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/browser/defaults/profile</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Caches/Firefox/Profiles</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/browser/res</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/browser/chrome</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/browser/plugins</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/browser/searchplugins</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/prefs.js</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/metro-prefs.js</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/preferences</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/chrome</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/searchplugins</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/localstore.rdf</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/mimeTypes.rdf</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/bookmarks.html</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Application Support/Firefox/Profiles/jv5ijq47.Unnamed Profile 1/downloads.rdf</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources/browser</t>
+  </si>
+  <si>
+    <t>/Users/noit</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Caches/TemporaryItems</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/MacOS/XUL</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/Resources</t>
+  </si>
+  <si>
+    <t>/Applications/Firefox.app/Contents/MacOS</t>
+  </si>
+  <si>
+    <t>/Users/noit/Downloads</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library</t>
+  </si>
+  <si>
+    <t>/Users/noit/Applications</t>
+  </si>
+  <si>
+    <t>/Applications</t>
+  </si>
+  <si>
+    <t>/Users/noit/Documents</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Internet Plug-Ins</t>
+  </si>
+  <si>
+    <t>/Library/Internet Plug-Ins</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Frameworks</t>
+  </si>
+  <si>
+    <t>/Library/Frameworks</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Preferences</t>
+  </si>
+  <si>
+    <t>/Library/Preferences</t>
+  </si>
+  <si>
+    <t>/Users/noit/Pictures</t>
+  </si>
+  <si>
+    <t>/Users/noit/Movies</t>
+  </si>
+  <si>
+    <t>/Users/noit/Music</t>
+  </si>
+  <si>
+    <t>/Users/noit/Sites</t>
+  </si>
+  <si>
+    <t>reg dirsvc</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/MacOS/firefox</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/distribution</t>
+  </si>
+  <si>
+    <t>/Users/noit/Library/Caches/Mozilla/updates/Users/noit/Desktop/Firefox - dev</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/browser/defaults</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/defaults/pref</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/browser/defaults/profile</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/browser/res</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/browser/chrome</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/browser/plugins</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/browser/searchplugins</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources/browser</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/MacOS/XUL</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/Resources</t>
+  </si>
+  <si>
+    <t>/Users/noit/Desktop/Firefox - dev.app/Contents/MacOS</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1923,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2388,7 +2591,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3482,10 +3685,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B85">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B238">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -3496,10 +3699,1559 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="99.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(A2&lt;&gt;B2,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">IF(A3&lt;&gt;B3,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C127" si="1">IF(A67&lt;&gt;B67,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" t="s">
+        <v>192</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>193</v>
+      </c>
+      <c r="B108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C127">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,13 +5269,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(A2&lt;&gt;B2,1,"")</f>
+        <f t="shared" ref="C2:C65" si="0">IF(A2&lt;&gt;B2,1,"")</f>
         <v/>
       </c>
     </row>
@@ -3535,16 +5287,16 @@
         <v>145</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(A3&lt;&gt;B3,1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3553,10 +5305,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3565,10 +5317,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3580,11 +5332,11 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>206</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,10 +5353,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3613,22 +5365,22 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3661,10 +5413,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3673,10 +5425,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3685,22 +5437,22 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3709,34 +5461,34 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -3745,10 +5497,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -3757,46 +5509,46 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -3853,10 +5605,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -3865,10 +5617,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -3877,10 +5629,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -3913,10 +5665,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -3925,10 +5677,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -3937,10 +5689,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -3949,10 +5701,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -3961,10 +5713,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -3973,10 +5725,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -3997,10 +5749,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -4021,10 +5773,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -4033,10 +5785,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -4057,10 +5809,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -4093,10 +5845,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -4105,10 +5857,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -4117,22 +5869,22 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>232</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -4141,10 +5893,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -4153,10 +5905,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -4165,10 +5917,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -4177,10 +5929,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -4189,10 +5941,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -4201,10 +5953,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -4225,10 +5977,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -4285,13 +6037,13 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C66:C127" si="1">IF(A66&lt;&gt;B66,1,"")</f>
         <v/>
       </c>
     </row>
@@ -4303,16 +6055,16 @@
         <v>145</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C127" si="1">IF(A67&lt;&gt;B67,1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -4333,10 +6085,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -4345,10 +6097,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -4357,10 +6109,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -4381,10 +6133,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -4393,10 +6145,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -4405,10 +6157,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -4429,10 +6181,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -4441,10 +6193,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -4453,10 +6205,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -4465,10 +6217,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -4477,10 +6229,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -4489,10 +6241,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -4501,10 +6253,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -4513,10 +6265,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -4525,10 +6277,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -4537,10 +6289,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -4549,10 +6301,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
@@ -4561,10 +6313,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -4573,10 +6325,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -4585,10 +6337,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -4621,10 +6373,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -4633,10 +6385,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -4645,10 +6397,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -4657,10 +6409,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -4669,10 +6421,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -4693,10 +6445,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -4729,10 +6481,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -4741,10 +6493,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -4753,10 +6505,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -4765,10 +6517,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -4777,10 +6529,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -4789,10 +6541,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -4801,10 +6553,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -4813,10 +6565,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -4849,10 +6601,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -4861,10 +6613,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -4873,10 +6625,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -4885,10 +6637,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -5017,10 +6769,3086 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>232</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">IF(A2&lt;&gt;B2,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C127" si="1">IF(A66&lt;&gt;B66,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">IF(A2&lt;&gt;B2,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C127" si="1">IF(A66&lt;&gt;B66,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>232</v>
+      </c>
+      <c r="B127" t="s">
+        <v>232</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
